--- a/excel-chart-to-powerpoint-demo.xlsx
+++ b/excel-chart-to-powerpoint-demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\excel-chart-to-powerpoint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E759DC2A-2A6F-4444-9111-ADF381E2291C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8337F4C5-D202-4F59-B663-6B2CE8CA05A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,6 +108,20 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -134,20 +148,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
       </border>
     </dxf>
   </dxfs>
@@ -1119,7 +1119,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{277B133E-D126-40F4-A3EE-E9C4200B7B93}" name="Table1" displayName="Table1" ref="A1:B6" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{277B133E-D126-40F4-A3EE-E9C4200B7B93}" name="Table1" displayName="Table1" ref="A1:B6" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:B6" xr:uid="{277B133E-D126-40F4-A3EE-E9C4200B7B93}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B6">
     <sortCondition ref="B1:B6"/>
@@ -1452,16 +1452,16 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.7890625" customWidth="1"/>
-    <col min="2" max="2" width="16.26171875" customWidth="1"/>
+    <col min="1" max="1" width="10.796875" customWidth="1"/>
+    <col min="2" max="2" width="16.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>22.83</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>58.37</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
